--- a/clases/clase_05/prueba/Pauta_planilla.xlsx
+++ b/clases/clase_05/prueba/Pauta_planilla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/R ayudantías/mc2/clases/clase_05/prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EA2B6E-0626-B34D-8FFC-B98FF90C7815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C7E6B7-0772-F54B-A5CC-30123C7BC06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{486CB254-39A0-408C-9671-2B3C3B70DFFA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{486CB254-39A0-408C-9671-2B3C3B70DFFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -233,13 +233,19 @@
   </si>
   <si>
     <t>CONCHA</t>
+  </si>
+  <si>
+    <t>Entregaron pero tuvieron problemas con guardar el script o crear el proyecto</t>
+  </si>
+  <si>
+    <t>No entregaron la prueba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +267,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +291,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -476,9 +495,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,6 +516,15 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,10 +859,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FC9FB9-54F5-4B73-98C2-17F8259D7A91}">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -857,64 +883,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="22" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="22" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="23"/>
       <c r="W2" s="11" t="s">
         <v>55</v>
       </c>
@@ -929,7 +954,6 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1001,7 +1025,7 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12"/>
@@ -1138,39 +1162,39 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="31">
+      <c r="A7" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="32">
-        <v>25.5</v>
-      </c>
-      <c r="Z7" s="32">
+      <c r="Y7" s="31">
+        <v>25.5</v>
+      </c>
+      <c r="Z7" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1179,9 +1203,7 @@
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12">
-        <v>0</v>
-      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="13">
         <v>1</v>
       </c>
@@ -1226,7 +1248,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12"/>
@@ -1264,39 +1286,39 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="31">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="32">
-        <v>25.5</v>
-      </c>
-      <c r="Z10" s="32">
+      <c r="Y10" s="31">
+        <v>25.5</v>
+      </c>
+      <c r="Z10" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1452,7 +1474,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="12"/>
@@ -1540,7 +1562,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="12"/>
@@ -1578,7 +1600,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="12"/>
@@ -1619,14 +1641,26 @@
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="12">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13">
+        <v>3</v>
+      </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
       <c r="J18" s="12"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -1643,56 +1677,56 @@
       <c r="W18" s="15"/>
       <c r="X18" s="10">
         <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z18" s="7">
+        <f t="shared" si="1"/>
+        <v>3.7058823529411766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z18" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z19" s="7">
+      <c r="Y19" s="31">
+        <v>25.5</v>
+      </c>
+      <c r="Z19" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="12"/>
@@ -1730,7 +1764,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="12"/>
@@ -1768,39 +1802,39 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="10">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z22" s="7">
+      <c r="Y22" s="31">
+        <v>25.5</v>
+      </c>
+      <c r="Z22" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1809,14 +1843,26 @@
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="12">
+        <v>3</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
+      <c r="E23" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13">
+        <v>3</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1</v>
+      </c>
+      <c r="I23" s="14">
+        <v>1.5</v>
+      </c>
       <c r="J23" s="12"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
@@ -1833,14 +1879,14 @@
       <c r="W23" s="15"/>
       <c r="X23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y23" s="7">
         <v>25.5</v>
       </c>
       <c r="Z23" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.8235294117647056</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1850,11 +1896,21 @@
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
+      <c r="E24" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
+        <v>3</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1.5</v>
+      </c>
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -1871,14 +1927,14 @@
       <c r="W24" s="15"/>
       <c r="X24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y24" s="7">
         <v>25.5</v>
       </c>
       <c r="Z24" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.8823529411764706</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1889,10 +1945,18 @@
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13">
+        <v>3</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1.5</v>
+      </c>
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
@@ -1909,14 +1973,14 @@
       <c r="W25" s="15"/>
       <c r="X25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y25" s="7">
         <v>25.5</v>
       </c>
       <c r="Z25" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.5294117647058822</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1927,10 +1991,18 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
+        <v>3</v>
+      </c>
+      <c r="H26" s="13">
+        <v>1</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1.5</v>
+      </c>
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -1947,14 +2019,14 @@
       <c r="W26" s="15"/>
       <c r="X26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y26" s="7">
         <v>25.5</v>
       </c>
       <c r="Z26" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.5294117647058822</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1962,13 +2034,25 @@
         <v>22</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="13">
+        <v>2.5</v>
+      </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
+      <c r="E27" s="14">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13">
+        <v>3</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <v>1</v>
+      </c>
       <c r="J27" s="12"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -1985,14 +2069,14 @@
       <c r="W27" s="15"/>
       <c r="X27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Y27" s="7">
         <v>25.5</v>
       </c>
       <c r="Z27" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.2352941176470589</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2001,12 +2085,24 @@
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
+      <c r="D28" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13">
+        <v>3</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1</v>
+      </c>
+      <c r="I28" s="14">
+        <v>1.5</v>
+      </c>
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -2023,14 +2119,14 @@
       <c r="W28" s="15"/>
       <c r="X28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y28" s="7">
         <v>25.5</v>
       </c>
       <c r="Z28" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.4705882352941178</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2041,10 +2137,18 @@
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13">
+        <v>3</v>
+      </c>
+      <c r="H29" s="13">
+        <v>1</v>
+      </c>
+      <c r="I29" s="14">
+        <v>1.5</v>
+      </c>
       <c r="J29" s="12"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
@@ -2061,18 +2165,18 @@
       <c r="W29" s="15"/>
       <c r="X29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y29" s="7">
         <v>25.5</v>
       </c>
       <c r="Z29" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.5294117647058822</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="12"/>
@@ -2113,14 +2217,26 @@
       <c r="A31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="12">
+        <v>3</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1.5</v>
+      </c>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13">
+        <v>1</v>
+      </c>
+      <c r="I31" s="14">
+        <v>0.5</v>
+      </c>
       <c r="J31" s="12"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -2137,28 +2253,40 @@
       <c r="W31" s="15"/>
       <c r="X31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y31" s="7">
         <v>25.5</v>
       </c>
       <c r="Z31" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.8823529411764706</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="12">
+        <v>3</v>
+      </c>
+      <c r="C32" s="13">
+        <v>2</v>
+      </c>
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
+        <v>3</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1</v>
+      </c>
+      <c r="I32" s="14">
+        <v>1.5</v>
+      </c>
       <c r="J32" s="12"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -2175,18 +2303,18 @@
       <c r="W32" s="15"/>
       <c r="X32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y32" s="7">
         <v>25.5</v>
       </c>
       <c r="Z32" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.7058823529411766</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="12"/>
@@ -2224,7 +2352,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="12"/>
@@ -2266,13 +2394,25 @@
         <v>30</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="13">
+        <v>3</v>
+      </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
+      <c r="E35" s="14">
+        <v>3</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13">
+        <v>3</v>
+      </c>
+      <c r="H35" s="13">
+        <v>1</v>
+      </c>
+      <c r="I35" s="14">
+        <v>1.5</v>
+      </c>
       <c r="J35" s="12"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
@@ -2289,14 +2429,14 @@
       <c r="W35" s="15"/>
       <c r="X35" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y35" s="7">
         <v>25.5</v>
       </c>
       <c r="Z35" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.9411764705882351</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2304,13 +2444,25 @@
         <v>31</v>
       </c>
       <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
+      <c r="C36" s="13">
+        <v>3</v>
+      </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
+      <c r="E36" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="F36" s="12">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
+        <v>3</v>
+      </c>
+      <c r="H36" s="13">
+        <v>1</v>
+      </c>
+      <c r="I36" s="14">
+        <v>1.5</v>
+      </c>
       <c r="J36" s="12"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
@@ -2327,28 +2479,40 @@
       <c r="W36" s="15"/>
       <c r="X36" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y36" s="7">
         <v>25.5</v>
       </c>
       <c r="Z36" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.8235294117647056</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="12">
+        <v>3</v>
+      </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="13">
+        <v>3</v>
+      </c>
       <c r="E37" s="14"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
+      <c r="F37" s="12">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13">
+        <v>3</v>
+      </c>
+      <c r="H37" s="13">
+        <v>1</v>
+      </c>
+      <c r="I37" s="14">
+        <v>1.5</v>
+      </c>
       <c r="J37" s="12"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
@@ -2365,18 +2529,18 @@
       <c r="W37" s="15"/>
       <c r="X37" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y37" s="7">
         <v>25.5</v>
       </c>
       <c r="Z37" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.9411764705882351</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="16"/>
@@ -2413,6 +2577,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B41" s="36"/>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B42" s="35"/>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B44" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:E2"/>

--- a/clases/clase_05/prueba/Pauta_planilla.xlsx
+++ b/clases/clase_05/prueba/Pauta_planilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/R ayudantías/mc2/clases/clase_05/prueba/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/gocampo_fen_uchile_cl/Documents/Escritorio/MC/mc2/clases/clase_05/prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C7E6B7-0772-F54B-A5CC-30123C7BC06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="13_ncr:1_{D0C7E6B7-0772-F54B-A5CC-30123C7BC06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4783D3CD-23EC-468A-B98C-19B4B533D203}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{486CB254-39A0-408C-9671-2B3C3B70DFFA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{486CB254-39A0-408C-9671-2B3C3B70DFFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>No entregaron la prueba</t>
+  </si>
+  <si>
+    <t>No adjunta script</t>
+  </si>
+  <si>
+    <t>Sin Script</t>
+  </si>
+  <si>
+    <t>Promedio de quienes enviaron</t>
+  </si>
+  <si>
+    <t>promedio total</t>
   </si>
 </sst>
 </file>
@@ -469,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -495,18 +507,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -525,6 +525,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,87 +873,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FC9FB9-54F5-4B73-98C2-17F8259D7A91}">
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA40" sqref="AA40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="40.36328125" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B1" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-    </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+    </row>
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="21" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="23"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="35"/>
       <c r="W2" s="11" t="s">
         <v>55</v>
       </c>
@@ -953,7 +967,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1024,8 +1038,8 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12"/>
@@ -1061,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1085,33 +1099,61 @@
       <c r="I5" s="14">
         <v>1.5</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="15"/>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>1</v>
+      </c>
+      <c r="N5" s="13">
+        <v>1</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+      <c r="T5" s="13">
+        <v>0</v>
+      </c>
+      <c r="U5" s="13">
+        <v>0</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0</v>
+      </c>
+      <c r="W5" s="15">
+        <v>0</v>
+      </c>
       <c r="X5" s="10">
         <f t="shared" ref="X5:X38" si="0">SUM(B5:W5)</f>
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" s="7">
         <v>25.5</v>
       </c>
       <c r="Z5" s="7">
         <f t="shared" ref="Z5:Z38" si="1">(X5/Y5*6)+1</f>
-        <v>3.8235294117647056</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4.4117647058823533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1135,71 +1177,102 @@
       <c r="I6" s="14">
         <v>1</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="15"/>
+      <c r="J6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+      <c r="N6" s="13">
+        <v>1</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <v>1</v>
+      </c>
+      <c r="S6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="13">
+        <v>1</v>
+      </c>
+      <c r="U6" s="13">
+        <v>2</v>
+      </c>
+      <c r="V6" s="14">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
+        <v>2</v>
+      </c>
       <c r="X6" s="10">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>22.5</v>
       </c>
       <c r="Y6" s="7">
         <v>25.5</v>
       </c>
       <c r="Z6" s="7">
         <f t="shared" si="1"/>
-        <v>3.7058823529411766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="30">
+        <v>6.2941176470588234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="31">
-        <v>25.5</v>
-      </c>
-      <c r="Z7" s="31">
+      <c r="Y7" s="27">
+        <v>25.5</v>
+      </c>
+      <c r="Z7" s="27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1221,34 +1294,62 @@
       <c r="I8" s="14">
         <v>1.5</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="15"/>
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="13">
+        <v>1</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14">
+        <v>0</v>
+      </c>
+      <c r="W8" s="15">
+        <v>0</v>
+      </c>
       <c r="X8" s="10">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" s="7">
         <v>25.5</v>
       </c>
       <c r="Z8" s="7">
         <f t="shared" si="1"/>
-        <v>2.7647058823529411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+        <v>4.0588235294117645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12"/>
@@ -1285,45 +1386,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="30">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="31">
-        <v>25.5</v>
-      </c>
-      <c r="Z10" s="31">
+      <c r="Y10" s="27">
+        <v>25.5</v>
+      </c>
+      <c r="Z10" s="27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1347,33 +1451,61 @@
       <c r="I11" s="14">
         <v>1.5</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="15"/>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="13">
+        <v>1</v>
+      </c>
+      <c r="N11" s="13">
+        <v>1</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="R11" s="14">
+        <v>1</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
+        <v>2</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0</v>
+      </c>
+      <c r="W11" s="15">
+        <v>2</v>
+      </c>
       <c r="X11" s="10">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>22.5</v>
       </c>
       <c r="Y11" s="7">
         <v>25.5</v>
       </c>
       <c r="Z11" s="7">
         <f t="shared" si="1"/>
-        <v>3.7058823529411766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>6.2941176470588234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1397,33 +1529,61 @@
       <c r="I12" s="14">
         <v>1</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="13">
+        <v>1</v>
+      </c>
+      <c r="N12" s="13">
+        <v>1</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>1</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0</v>
+      </c>
+      <c r="U12" s="13">
+        <v>2</v>
+      </c>
+      <c r="V12" s="14">
+        <v>1</v>
+      </c>
+      <c r="W12" s="15">
+        <v>0</v>
+      </c>
       <c r="X12" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" s="7">
         <v>25.5</v>
       </c>
       <c r="Z12" s="7">
         <f t="shared" si="1"/>
-        <v>2.6470588235294121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4.6470588235294112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1447,34 +1607,62 @@
       <c r="I13" s="14">
         <v>1.5</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="15"/>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="13">
+        <v>1</v>
+      </c>
+      <c r="N13" s="13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14">
+        <v>1</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T13" s="13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0</v>
+      </c>
+      <c r="W13" s="15">
+        <v>0</v>
+      </c>
       <c r="X13" s="10">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" s="7">
         <v>25.5</v>
       </c>
       <c r="Z13" s="7">
         <f t="shared" si="1"/>
-        <v>3.9411764705882351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+        <v>5.3529411764705879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="12"/>
@@ -1511,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
@@ -1535,34 +1723,62 @@
       <c r="I15" s="14">
         <v>1</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="13">
+        <v>1</v>
+      </c>
+      <c r="N15" s="13">
+        <v>1</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="14">
+        <v>1</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="14">
+        <v>0</v>
+      </c>
+      <c r="W15" s="15">
+        <v>0</v>
+      </c>
       <c r="X15" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y15" s="7">
         <v>25.5</v>
       </c>
       <c r="Z15" s="7">
         <f t="shared" si="1"/>
-        <v>2.8823529411764706</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+        <v>3.8235294117647056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="12"/>
@@ -1599,8 +1815,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="12"/>
@@ -1637,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -1661,72 +1877,103 @@
       <c r="I18" s="14">
         <v>1</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
+      <c r="J18" s="37">
+        <v>1</v>
+      </c>
+      <c r="K18" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="37">
+        <v>1</v>
+      </c>
+      <c r="N18" s="37">
+        <v>1</v>
+      </c>
+      <c r="O18" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="37">
+        <v>0</v>
+      </c>
+      <c r="R18" s="37">
+        <v>1</v>
+      </c>
+      <c r="S18" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="T18" s="37">
+        <v>0</v>
+      </c>
+      <c r="U18" s="37">
+        <v>0</v>
+      </c>
+      <c r="V18" s="37">
+        <v>0</v>
+      </c>
+      <c r="W18" s="37">
+        <v>0</v>
+      </c>
       <c r="X18" s="10">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" s="7">
         <v>25.5</v>
       </c>
       <c r="Z18" s="7">
         <f t="shared" si="1"/>
-        <v>3.7058823529411766</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+        <v>5.117647058823529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="30">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="31">
-        <v>25.5</v>
-      </c>
-      <c r="Z19" s="31">
+      <c r="Y19" s="27">
+        <v>25.5</v>
+      </c>
+      <c r="Z19" s="27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="AA19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="12"/>
@@ -1763,8 +2010,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+    <row r="21" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="12"/>
@@ -1801,45 +2048,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="30">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="31">
-        <v>25.5</v>
-      </c>
-      <c r="Z22" s="31">
+      <c r="Y22" s="27">
+        <v>25.5</v>
+      </c>
+      <c r="Z22" s="27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
@@ -1863,33 +2110,61 @@
       <c r="I23" s="14">
         <v>1.5</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="15"/>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="13">
+        <v>1</v>
+      </c>
+      <c r="N23" s="13">
+        <v>1</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="R23" s="14">
+        <v>1</v>
+      </c>
+      <c r="S23" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T23" s="13">
+        <v>1</v>
+      </c>
+      <c r="U23" s="13">
+        <v>2</v>
+      </c>
+      <c r="V23" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="W23" s="15">
+        <v>2</v>
+      </c>
       <c r="X23" s="10">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>23.5</v>
       </c>
       <c r="Y23" s="7">
         <v>25.5</v>
       </c>
       <c r="Z23" s="7">
         <f t="shared" si="1"/>
-        <v>3.8235294117647056</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>6.5294117647058822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -1911,20 +2186,48 @@
       <c r="I24" s="14">
         <v>1.5</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="15"/>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0</v>
+      </c>
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>0</v>
+      </c>
+      <c r="R24" s="14">
+        <v>0</v>
+      </c>
+      <c r="S24" s="12">
+        <v>0</v>
+      </c>
+      <c r="T24" s="13">
+        <v>0</v>
+      </c>
+      <c r="U24" s="13">
+        <v>0</v>
+      </c>
+      <c r="V24" s="14">
+        <v>0</v>
+      </c>
+      <c r="W24" s="15">
+        <v>0</v>
+      </c>
       <c r="X24" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1937,7 +2240,7 @@
         <v>2.8823529411764706</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
@@ -1957,33 +2260,61 @@
       <c r="I25" s="14">
         <v>1.5</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="15"/>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13">
+        <v>1</v>
+      </c>
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="14">
+        <v>0</v>
+      </c>
+      <c r="S25" s="12">
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0</v>
+      </c>
+      <c r="V25" s="14">
+        <v>0</v>
+      </c>
+      <c r="W25" s="15">
+        <v>0</v>
+      </c>
       <c r="X25" s="10">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
+        <f>SUM(B25:W25)</f>
+        <v>8</v>
       </c>
       <c r="Y25" s="7">
         <v>25.5</v>
       </c>
       <c r="Z25" s="7">
         <f t="shared" si="1"/>
-        <v>2.5294117647058822</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>2.8823529411764706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -2003,33 +2334,61 @@
       <c r="I26" s="14">
         <v>1.5</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="15"/>
+      <c r="J26" s="12">
+        <v>1</v>
+      </c>
+      <c r="K26" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M26" s="13">
+        <v>1</v>
+      </c>
+      <c r="N26" s="13">
+        <v>1</v>
+      </c>
+      <c r="O26" s="13">
+        <v>0</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>0</v>
+      </c>
+      <c r="R26" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="S26" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T26" s="13">
+        <v>1</v>
+      </c>
+      <c r="U26" s="13">
+        <v>0</v>
+      </c>
+      <c r="V26" s="14">
+        <v>0</v>
+      </c>
+      <c r="W26" s="15">
+        <v>0</v>
+      </c>
       <c r="X26" s="10">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="Y26" s="7">
         <v>25.5</v>
       </c>
       <c r="Z26" s="7">
         <f t="shared" si="1"/>
-        <v>2.5294117647058822</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4.0588235294117645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
@@ -2053,33 +2412,61 @@
       <c r="I27" s="14">
         <v>1</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="15"/>
+      <c r="J27" s="12">
+        <v>1</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>1</v>
+      </c>
+      <c r="N27" s="13">
+        <v>1</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="14">
+        <v>1</v>
+      </c>
+      <c r="S27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T27" s="13">
+        <v>1</v>
+      </c>
+      <c r="U27" s="13">
+        <v>2</v>
+      </c>
+      <c r="V27" s="14">
+        <v>1</v>
+      </c>
+      <c r="W27" s="15">
+        <v>0.5</v>
+      </c>
       <c r="X27" s="10">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="Y27" s="7">
         <v>25.5</v>
       </c>
       <c r="Z27" s="7">
         <f t="shared" si="1"/>
-        <v>3.2352941176470589</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>5.4705882352941178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>23</v>
       </c>
@@ -2103,33 +2490,61 @@
       <c r="I28" s="14">
         <v>1.5</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="15"/>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M28" s="13">
+        <v>1</v>
+      </c>
+      <c r="N28" s="13">
+        <v>1</v>
+      </c>
+      <c r="O28" s="13">
+        <v>0</v>
+      </c>
+      <c r="P28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>0</v>
+      </c>
+      <c r="R28" s="14">
+        <v>0</v>
+      </c>
+      <c r="S28" s="12">
+        <v>0</v>
+      </c>
+      <c r="T28" s="13">
+        <v>0</v>
+      </c>
+      <c r="U28" s="13">
+        <v>0</v>
+      </c>
+      <c r="V28" s="14">
+        <v>0</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
       <c r="X28" s="10">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y28" s="7">
         <v>25.5</v>
       </c>
       <c r="Z28" s="7">
         <f t="shared" si="1"/>
-        <v>3.4705882352941178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4.1764705882352944</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
@@ -2149,34 +2564,62 @@
       <c r="I29" s="14">
         <v>1.5</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="15"/>
+      <c r="J29" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M29" s="13">
+        <v>1</v>
+      </c>
+      <c r="N29" s="13">
+        <v>1</v>
+      </c>
+      <c r="O29" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>0</v>
+      </c>
+      <c r="R29" s="14">
+        <v>0</v>
+      </c>
+      <c r="S29" s="12">
+        <v>0</v>
+      </c>
+      <c r="T29" s="13">
+        <v>0</v>
+      </c>
+      <c r="U29" s="13">
+        <v>0</v>
+      </c>
+      <c r="V29" s="14">
+        <v>0</v>
+      </c>
+      <c r="W29" s="15">
+        <v>0</v>
+      </c>
       <c r="X29" s="10">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y29" s="7">
         <v>25.5</v>
       </c>
       <c r="Z29" s="7">
         <f t="shared" si="1"/>
-        <v>2.5294117647058822</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+        <v>3.4705882352941178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="12"/>
@@ -2213,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>26</v>
       </c>
@@ -2237,33 +2680,61 @@
       <c r="I31" s="14">
         <v>0.5</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="15"/>
+      <c r="J31" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M31" s="13">
+        <v>1</v>
+      </c>
+      <c r="N31" s="13">
+        <v>1</v>
+      </c>
+      <c r="O31" s="13">
+        <v>0</v>
+      </c>
+      <c r="P31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>0</v>
+      </c>
+      <c r="R31" s="14">
+        <v>0</v>
+      </c>
+      <c r="S31" s="12">
+        <v>0</v>
+      </c>
+      <c r="T31" s="13">
+        <v>0</v>
+      </c>
+      <c r="U31" s="13">
+        <v>0</v>
+      </c>
+      <c r="V31" s="14">
+        <v>0</v>
+      </c>
+      <c r="W31" s="15">
+        <v>0</v>
+      </c>
       <c r="X31" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="Y31" s="7">
         <v>25.5</v>
       </c>
       <c r="Z31" s="7">
         <f t="shared" si="1"/>
-        <v>2.8823529411764706</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>3.7058823529411766</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>27</v>
       </c>
@@ -2287,34 +2758,62 @@
       <c r="I32" s="14">
         <v>1.5</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="15"/>
+      <c r="J32" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
+      <c r="M32" s="13">
+        <v>0</v>
+      </c>
+      <c r="N32" s="13">
+        <v>0</v>
+      </c>
+      <c r="O32" s="13">
+        <v>0</v>
+      </c>
+      <c r="P32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>0</v>
+      </c>
+      <c r="R32" s="14">
+        <v>0</v>
+      </c>
+      <c r="S32" s="12">
+        <v>0</v>
+      </c>
+      <c r="T32" s="13">
+        <v>0</v>
+      </c>
+      <c r="U32" s="13">
+        <v>0</v>
+      </c>
+      <c r="V32" s="14">
+        <v>0</v>
+      </c>
+      <c r="W32" s="15">
+        <v>0</v>
+      </c>
       <c r="X32" s="10">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y32" s="7">
         <v>25.5</v>
       </c>
       <c r="Z32" s="7">
         <f t="shared" si="1"/>
-        <v>3.7058823529411766</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+        <v>3.8235294117647056</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="12"/>
@@ -2351,8 +2850,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="12"/>
@@ -2389,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>30</v>
       </c>
@@ -2413,33 +2912,61 @@
       <c r="I35" s="14">
         <v>1.5</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="15"/>
+      <c r="J35" s="12">
+        <v>1</v>
+      </c>
+      <c r="K35" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M35" s="13">
+        <v>1</v>
+      </c>
+      <c r="N35" s="13">
+        <v>1</v>
+      </c>
+      <c r="O35" s="13">
+        <v>0</v>
+      </c>
+      <c r="P35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>0</v>
+      </c>
+      <c r="R35" s="14">
+        <v>0</v>
+      </c>
+      <c r="S35" s="12">
+        <v>0</v>
+      </c>
+      <c r="T35" s="13">
+        <v>0</v>
+      </c>
+      <c r="U35" s="13">
+        <v>0</v>
+      </c>
+      <c r="V35" s="14">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
       <c r="X35" s="10">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y35" s="7">
         <v>25.5</v>
       </c>
       <c r="Z35" s="7">
         <f t="shared" si="1"/>
-        <v>3.9411764705882351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4.882352941176471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>31</v>
       </c>
@@ -2463,33 +2990,61 @@
       <c r="I36" s="14">
         <v>1.5</v>
       </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="15"/>
+      <c r="J36" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M36" s="13">
+        <v>1</v>
+      </c>
+      <c r="N36" s="13">
+        <v>1</v>
+      </c>
+      <c r="O36" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P36" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>0</v>
+      </c>
+      <c r="R36" s="14">
+        <v>1</v>
+      </c>
+      <c r="S36" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T36" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="U36" s="13">
+        <v>0</v>
+      </c>
+      <c r="V36" s="14">
+        <v>0</v>
+      </c>
+      <c r="W36" s="15">
+        <v>0</v>
+      </c>
       <c r="X36" s="10">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Y36" s="7">
         <v>25.5</v>
       </c>
       <c r="Z36" s="7">
         <f t="shared" si="1"/>
-        <v>3.8235294117647056</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>5.2352941176470589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>32</v>
       </c>
@@ -2513,34 +3068,62 @@
       <c r="I37" s="14">
         <v>1.5</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="15"/>
+      <c r="J37" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M37" s="13">
+        <v>1</v>
+      </c>
+      <c r="N37" s="13">
+        <v>1</v>
+      </c>
+      <c r="O37" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>0</v>
+      </c>
+      <c r="R37" s="14">
+        <v>0</v>
+      </c>
+      <c r="S37" s="12">
+        <v>0</v>
+      </c>
+      <c r="T37" s="13">
+        <v>0</v>
+      </c>
+      <c r="U37" s="13">
+        <v>0</v>
+      </c>
+      <c r="V37" s="14">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
       <c r="X37" s="10">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y37" s="7">
         <v>25.5</v>
       </c>
       <c r="Z37" s="7">
         <f t="shared" si="1"/>
-        <v>3.9411764705882351</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+        <v>4.882352941176471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="16"/>
@@ -2577,20 +3160,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B41" s="36"/>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y39" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z39" s="38">
+        <f>AVERAGE(Z5,Z6,Z8,Z11,Z12,Z13,Z15,Z18,Z23:Z29,Z31:Z32,Z35:Z37)</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z40" s="38">
+        <f>AVERAGE(Z4:Z38)</f>
+        <v>3.0571428571428569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B41" s="32"/>
       <c r="C41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B42" s="35"/>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B42" s="31"/>
       <c r="C42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B44" s="34"/>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B44" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/clases/clase_05/prueba/Pauta_planilla.xlsx
+++ b/clases/clase_05/prueba/Pauta_planilla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/gocampo_fen_uchile_cl/Documents/Escritorio/MC/mc2/clases/clase_05/prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="13_ncr:1_{D0C7E6B7-0772-F54B-A5CC-30123C7BC06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4783D3CD-23EC-468A-B98C-19B4B533D203}"/>
+  <xr:revisionPtr revIDLastSave="396" documentId="13_ncr:1_{D0C7E6B7-0772-F54B-A5CC-30123C7BC06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CCBBDF1-6ADD-4B21-B14D-CD2B959FD304}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{486CB254-39A0-408C-9671-2B3C3B70DFFA}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -516,9 +516,6 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -537,8 +534,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,9 +876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FC9FB9-54F5-4B73-98C2-17F8259D7A91}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA40" sqref="AA40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -897,63 +898,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="33" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="33" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="35"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="34"/>
       <c r="W2" s="11" t="s">
         <v>55</v>
       </c>
@@ -1039,40 +1040,81 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="15"/>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>3</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>1</v>
+      </c>
+      <c r="N4" s="13">
+        <v>1</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14">
+        <v>1</v>
+      </c>
+      <c r="S4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T4" s="13">
+        <v>0</v>
+      </c>
+      <c r="U4" s="13">
+        <v>2</v>
+      </c>
+      <c r="V4" s="14">
+        <v>1</v>
+      </c>
+      <c r="W4" s="15">
+        <v>0</v>
+      </c>
       <c r="X4" s="7">
-        <v>0</v>
+        <f>SUM(B4:W4)</f>
+        <v>17.5</v>
       </c>
       <c r="Y4" s="7">
         <v>25.5</v>
       </c>
       <c r="Z4" s="7">
         <f>(X4/Y4*6)+1</f>
-        <v>1</v>
+        <v>5.117647058823529</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1141,15 +1183,15 @@
       <c r="W5" s="15">
         <v>0</v>
       </c>
-      <c r="X5" s="10">
-        <f t="shared" ref="X5:X38" si="0">SUM(B5:W5)</f>
+      <c r="X5" s="15">
+        <f>SUM(B5:W5)</f>
         <v>14.5</v>
       </c>
       <c r="Y5" s="7">
         <v>25.5</v>
       </c>
       <c r="Z5" s="7">
-        <f t="shared" ref="Z5:Z38" si="1">(X5/Y5*6)+1</f>
+        <f t="shared" ref="Z5:Z38" si="0">(X5/Y5*6)+1</f>
         <v>4.4117647058823533</v>
       </c>
     </row>
@@ -1220,14 +1262,14 @@
         <v>2</v>
       </c>
       <c r="X6" s="10">
+        <f t="shared" ref="X5:X38" si="1">SUM(B6:W6)</f>
+        <v>22.5</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z6" s="7">
         <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z6" s="7">
-        <f t="shared" si="1"/>
         <v>6.2941176470588234</v>
       </c>
     </row>
@@ -1258,14 +1300,14 @@
       <c r="V7" s="24"/>
       <c r="W7" s="25"/>
       <c r="X7" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="27">
+        <v>25.5</v>
+      </c>
+      <c r="Z7" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="27">
-        <v>25.5</v>
-      </c>
-      <c r="Z7" s="27">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA7" t="s">
@@ -1337,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="X8" s="10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z8" s="7">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z8" s="7">
-        <f t="shared" si="1"/>
         <v>4.0588235294117645</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12"/>
@@ -1375,14 +1417,14 @@
       <c r="V9" s="14"/>
       <c r="W9" s="15"/>
       <c r="X9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z9" s="7">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1413,14 +1455,14 @@
       <c r="V10" s="24"/>
       <c r="W10" s="25"/>
       <c r="X10" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="27">
+        <v>25.5</v>
+      </c>
+      <c r="Z10" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="27">
-        <v>25.5</v>
-      </c>
-      <c r="Z10" s="27">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA10" t="s">
@@ -1494,14 +1536,14 @@
         <v>2</v>
       </c>
       <c r="X11" s="10">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z11" s="7">
         <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z11" s="7">
-        <f t="shared" si="1"/>
         <v>6.2941176470588234</v>
       </c>
     </row>
@@ -1572,14 +1614,14 @@
         <v>0</v>
       </c>
       <c r="X12" s="10">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z12" s="7">
         <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z12" s="7">
-        <f t="shared" si="1"/>
         <v>4.6470588235294112</v>
       </c>
     </row>
@@ -1650,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="X13" s="10">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z13" s="7">
         <f t="shared" si="0"/>
-        <v>18.5</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z13" s="7">
-        <f t="shared" si="1"/>
         <v>5.3529411764705879</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="12"/>
@@ -1688,14 +1730,14 @@
       <c r="V14" s="14"/>
       <c r="W14" s="15"/>
       <c r="X14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z14" s="7">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1766,19 +1808,19 @@
         <v>0</v>
       </c>
       <c r="X15" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z15" s="7">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="Y15" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z15" s="7">
-        <f t="shared" si="1"/>
         <v>3.8235294117647056</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="12"/>
@@ -1804,19 +1846,19 @@
       <c r="V16" s="14"/>
       <c r="W16" s="15"/>
       <c r="X16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z16" s="7">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="12"/>
@@ -1842,14 +1884,14 @@
       <c r="V17" s="14"/>
       <c r="W17" s="15"/>
       <c r="X17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z17" s="7">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1877,57 +1919,57 @@
       <c r="I18" s="14">
         <v>1</v>
       </c>
-      <c r="J18" s="37">
-        <v>1</v>
-      </c>
-      <c r="K18" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="M18" s="37">
-        <v>1</v>
-      </c>
-      <c r="N18" s="37">
-        <v>1</v>
-      </c>
-      <c r="O18" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="P18" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="37">
-        <v>0</v>
-      </c>
-      <c r="R18" s="37">
-        <v>1</v>
-      </c>
-      <c r="S18" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="T18" s="37">
-        <v>0</v>
-      </c>
-      <c r="U18" s="37">
-        <v>0</v>
-      </c>
-      <c r="V18" s="37">
-        <v>0</v>
-      </c>
-      <c r="W18" s="37">
+      <c r="J18" s="13">
+        <v>1</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="13">
+        <v>1</v>
+      </c>
+      <c r="N18" s="13">
+        <v>1</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13">
+        <v>1</v>
+      </c>
+      <c r="S18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="T18" s="13">
+        <v>0</v>
+      </c>
+      <c r="U18" s="13">
+        <v>0</v>
+      </c>
+      <c r="V18" s="13">
+        <v>0</v>
+      </c>
+      <c r="W18" s="13">
         <v>0</v>
       </c>
       <c r="X18" s="10">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z18" s="7">
         <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z18" s="7">
-        <f t="shared" si="1"/>
         <v>5.117647058823529</v>
       </c>
     </row>
@@ -1958,14 +2000,14 @@
       <c r="V19" s="24"/>
       <c r="W19" s="25"/>
       <c r="X19" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="27">
+        <v>25.5</v>
+      </c>
+      <c r="Z19" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="27">
-        <v>25.5</v>
-      </c>
-      <c r="Z19" s="27">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA19" t="s">
@@ -1973,45 +2015,85 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13">
+        <v>2</v>
+      </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="15"/>
+      <c r="E20" s="14">
+        <v>2</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13">
+        <v>3</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="13">
+        <v>1</v>
+      </c>
+      <c r="N20" s="13">
+        <v>1</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>0</v>
+      </c>
+      <c r="R20" s="14">
+        <v>1</v>
+      </c>
+      <c r="S20" s="12">
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
+        <v>0</v>
+      </c>
+      <c r="U20" s="13">
+        <v>0</v>
+      </c>
+      <c r="V20" s="14">
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
       <c r="X20" s="10">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z20" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z20" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4.6470588235294112</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="12"/>
@@ -2037,14 +2119,14 @@
       <c r="V21" s="14"/>
       <c r="W21" s="15"/>
       <c r="X21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z21" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z21" s="7">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2075,14 +2157,14 @@
       <c r="V22" s="24"/>
       <c r="W22" s="25"/>
       <c r="X22" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="27">
+        <v>25.5</v>
+      </c>
+      <c r="Z22" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="27">
-        <v>25.5</v>
-      </c>
-      <c r="Z22" s="27">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2153,14 +2235,14 @@
         <v>2</v>
       </c>
       <c r="X23" s="10">
+        <f t="shared" si="1"/>
+        <v>23.5</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z23" s="7">
         <f t="shared" si="0"/>
-        <v>23.5</v>
-      </c>
-      <c r="Y23" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z23" s="7">
-        <f t="shared" si="1"/>
         <v>6.5294117647058822</v>
       </c>
     </row>
@@ -2229,14 +2311,14 @@
         <v>0</v>
       </c>
       <c r="X24" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z24" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Y24" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z24" s="7">
-        <f t="shared" si="1"/>
         <v>2.8823529411764706</v>
       </c>
     </row>
@@ -2310,7 +2392,7 @@
         <v>25.5</v>
       </c>
       <c r="Z25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8823529411764706</v>
       </c>
     </row>
@@ -2377,14 +2459,14 @@
         <v>0</v>
       </c>
       <c r="X26" s="10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z26" s="7">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Y26" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z26" s="7">
-        <f t="shared" si="1"/>
         <v>4.0588235294117645</v>
       </c>
     </row>
@@ -2455,14 +2537,14 @@
         <v>0.5</v>
       </c>
       <c r="X27" s="10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z27" s="7">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="Y27" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z27" s="7">
-        <f t="shared" si="1"/>
         <v>5.4705882352941178</v>
       </c>
     </row>
@@ -2533,14 +2615,14 @@
         <v>0</v>
       </c>
       <c r="X28" s="10">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z28" s="7">
         <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="Y28" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z28" s="7">
-        <f t="shared" si="1"/>
         <v>4.1764705882352944</v>
       </c>
     </row>
@@ -2607,53 +2689,91 @@
         <v>0</v>
       </c>
       <c r="X29" s="10">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z29" s="7">
         <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="Y29" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z29" s="7">
+        <v>3.4705882352941178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="12">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <v>3</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="J30" s="12">
+        <v>1</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M30" s="13">
+        <v>1</v>
+      </c>
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
+      <c r="O30" s="13">
+        <v>0</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>0</v>
+      </c>
+      <c r="R30" s="14">
+        <v>0</v>
+      </c>
+      <c r="S30" s="12">
+        <v>0</v>
+      </c>
+      <c r="T30" s="13">
+        <v>0</v>
+      </c>
+      <c r="U30" s="13">
+        <v>0</v>
+      </c>
+      <c r="V30" s="14">
+        <v>0</v>
+      </c>
+      <c r="W30" s="15">
+        <v>0</v>
+      </c>
+      <c r="X30" s="10">
         <f t="shared" si="1"/>
-        <v>3.4705882352941178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z30" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z30" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4.4117647058823533</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2723,14 +2843,14 @@
         <v>0</v>
       </c>
       <c r="X31" s="10">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z31" s="7">
         <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-      <c r="Y31" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z31" s="7">
-        <f t="shared" si="1"/>
         <v>3.7058823529411766</v>
       </c>
     </row>
@@ -2801,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="X32" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z32" s="7">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z32" s="7">
-        <f t="shared" si="1"/>
         <v>3.8235294117647056</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="12"/>
@@ -2839,19 +2959,19 @@
       <c r="V33" s="14"/>
       <c r="W33" s="15"/>
       <c r="X33" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z33" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z33" s="7">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="12"/>
@@ -2877,14 +2997,14 @@
       <c r="V34" s="14"/>
       <c r="W34" s="15"/>
       <c r="X34" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z34" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z34" s="7">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2955,14 +3075,14 @@
         <v>0</v>
       </c>
       <c r="X35" s="10">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z35" s="7">
         <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="Y35" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z35" s="7">
-        <f t="shared" si="1"/>
         <v>4.882352941176471</v>
       </c>
     </row>
@@ -3033,14 +3153,14 @@
         <v>0</v>
       </c>
       <c r="X36" s="10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z36" s="7">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="Y36" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z36" s="7">
-        <f t="shared" si="1"/>
         <v>5.2352941176470589</v>
       </c>
     </row>
@@ -3111,60 +3231,100 @@
         <v>0</v>
       </c>
       <c r="X37" s="10">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Z37" s="7">
         <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="Y37" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="Z37" s="7">
-        <f t="shared" si="1"/>
         <v>4.882352941176471</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="19"/>
+      <c r="D38" s="17">
+        <v>3</v>
+      </c>
+      <c r="E38" s="18">
+        <v>3</v>
+      </c>
+      <c r="F38" s="16">
+        <v>1</v>
+      </c>
+      <c r="G38" s="17">
+        <v>3</v>
+      </c>
+      <c r="H38" s="17">
+        <v>1</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1</v>
+      </c>
+      <c r="J38" s="16">
+        <v>1</v>
+      </c>
+      <c r="K38" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>1</v>
+      </c>
+      <c r="N38" s="17">
+        <v>1</v>
+      </c>
+      <c r="O38" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="P38" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="Q38" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="R38" s="18">
+        <v>1</v>
+      </c>
+      <c r="S38" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T38" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="U38" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="V38" s="18">
+        <v>1</v>
+      </c>
+      <c r="W38" s="19">
+        <v>2</v>
+      </c>
       <c r="X38" s="8">
+        <f t="shared" si="1"/>
+        <v>23.3</v>
+      </c>
+      <c r="Y38" s="9">
+        <v>25.5</v>
+      </c>
+      <c r="Z38" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="9">
-        <v>25.5</v>
-      </c>
-      <c r="Z38" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6.4823529411764707</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Y39" t="s">
         <v>70</v>
       </c>
-      <c r="Z39" s="38">
+      <c r="Z39" s="10">
         <f>AVERAGE(Z5,Z6,Z8,Z11,Z12,Z13,Z15,Z18,Z23:Z29,Z31:Z32,Z35:Z37)</f>
         <v>4.5999999999999996</v>
       </c>
@@ -3173,25 +3333,25 @@
       <c r="Y40" t="s">
         <v>71</v>
       </c>
-      <c r="Z40" s="38">
+      <c r="Z40" s="10">
         <f>AVERAGE(Z4:Z38)</f>
-        <v>3.0571428571428569</v>
+        <v>3.5331092436974787</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B41" s="32"/>
+      <c r="B41" s="31"/>
       <c r="C41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B42" s="31"/>
+      <c r="B42" s="30"/>
       <c r="C42" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B44" s="30"/>
+      <c r="B44" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/clases/clase_05/prueba/Pauta_planilla.xlsx
+++ b/clases/clase_05/prueba/Pauta_planilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/gocampo_fen_uchile_cl/Documents/Escritorio/MC/mc2/clases/clase_05/prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="396" documentId="13_ncr:1_{D0C7E6B7-0772-F54B-A5CC-30123C7BC06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CCBBDF1-6ADD-4B21-B14D-CD2B959FD304}"/>
+  <xr:revisionPtr revIDLastSave="416" documentId="13_ncr:1_{D0C7E6B7-0772-F54B-A5CC-30123C7BC06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7A8F1A4-014D-43C5-BEA6-85ECE168B36E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{486CB254-39A0-408C-9671-2B3C3B70DFFA}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -522,6 +522,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,12 +536,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,9 +873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FC9FB9-54F5-4B73-98C2-17F8259D7A91}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -898,63 +895,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="32" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="32" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="35"/>
       <c r="W2" s="11" t="s">
         <v>55</v>
       </c>
@@ -1040,7 +1037,7 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12">
@@ -1262,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="X6" s="10">
-        <f t="shared" ref="X5:X38" si="1">SUM(B6:W6)</f>
+        <f t="shared" ref="X6:X38" si="1">SUM(B6:W6)</f>
         <v>22.5</v>
       </c>
       <c r="Y6" s="7">
@@ -1394,38 +1391,78 @@
       <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="12">
+        <v>3</v>
+      </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>3</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13">
+        <v>0</v>
+      </c>
+      <c r="U9" s="13">
+        <v>0</v>
+      </c>
+      <c r="V9" s="14">
+        <v>0</v>
+      </c>
+      <c r="W9" s="15">
+        <v>0</v>
+      </c>
       <c r="X9" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" s="7">
         <v>25.5</v>
       </c>
       <c r="Z9" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3.4705882352941178</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2015,7 +2052,7 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="12"/>
@@ -2701,7 +2738,7 @@
       </c>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="12">
@@ -3243,7 +3280,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="16"/>
@@ -3335,7 +3372,7 @@
       </c>
       <c r="Z40" s="10">
         <f>AVERAGE(Z4:Z38)</f>
-        <v>3.5331092436974787</v>
+        <v>3.6036974789915961</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">

--- a/clases/clase_05/prueba/Pauta_planilla.xlsx
+++ b/clases/clase_05/prueba/Pauta_planilla.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/gocampo_fen_uchile_cl/Documents/Escritorio/MC/mc2/clases/clase_05/prueba/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginow\OneDrive - Universidad de Chile\Escritorio\MC\mc2\clases\clase_05\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="416" documentId="13_ncr:1_{D0C7E6B7-0772-F54B-A5CC-30123C7BC06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7A8F1A4-014D-43C5-BEA6-85ECE168B36E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD913FE7-00FB-4A0F-BD9B-96D733EF79CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{486CB254-39A0-408C-9671-2B3C3B70DFFA}"/>
   </bookViews>
@@ -874,8 +874,8 @@
   <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9"/>
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1745,37 +1745,77 @@
         <v>10</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="13">
+        <v>2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2.5</v>
+      </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>3</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="13">
+        <v>1</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0</v>
+      </c>
+      <c r="S14" s="12">
+        <v>0</v>
+      </c>
+      <c r="T14" s="13">
+        <v>0</v>
+      </c>
+      <c r="U14" s="13">
+        <v>0</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0</v>
+      </c>
+      <c r="W14" s="15">
+        <v>0</v>
+      </c>
       <c r="X14" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" s="7">
         <v>25.5</v>
       </c>
       <c r="Z14" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4.4117647058823533</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1900,36 +1940,74 @@
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="13">
+        <v>3</v>
+      </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>3</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="13">
+        <v>1</v>
+      </c>
+      <c r="N17" s="13">
+        <v>1</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0</v>
+      </c>
+      <c r="R17" s="14">
+        <v>0</v>
+      </c>
+      <c r="S17" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T17" s="13">
+        <v>0</v>
+      </c>
+      <c r="U17" s="13">
+        <v>0</v>
+      </c>
+      <c r="V17" s="14">
+        <v>0</v>
+      </c>
+      <c r="W17" s="15">
+        <v>0</v>
+      </c>
       <c r="X17" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y17" s="7">
         <v>25.5</v>
       </c>
       <c r="Z17" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4.2941176470588243</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3372,7 +3450,7 @@
       </c>
       <c r="Z40" s="10">
         <f>AVERAGE(Z4:Z38)</f>
-        <v>3.6036974789915961</v>
+        <v>3.795294117647058</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">

--- a/clases/clase_05/prueba/Pauta_planilla.xlsx
+++ b/clases/clase_05/prueba/Pauta_planilla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginow\OneDrive - Universidad de Chile\Escritorio\MC\mc2\clases\clase_05\prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/gocampo_fen_uchile_cl/Documents/Escritorio/MC/mc2/clases/clase_05/prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD913FE7-00FB-4A0F-BD9B-96D733EF79CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{BD913FE7-00FB-4A0F-BD9B-96D733EF79CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCA0A553-2226-4649-AA5C-D38934B3EF3D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{486CB254-39A0-408C-9671-2B3C3B70DFFA}"/>
   </bookViews>
@@ -873,9 +873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FC9FB9-54F5-4B73-98C2-17F8259D7A91}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
